--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE8BB39A-63B0-411A-BDDC-903B9B514A83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E23CA-6C5D-4371-AB50-29E59E493D28}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00020865-1D5D-41F5-90CF-5D3257670E0D}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E23CA-6C5D-4371-AB50-29E59E493D28}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E682D-04ED-476A-85AB-8EB62E33989C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="173">
   <si>
     <t>01</t>
   </si>
@@ -538,13 +538,19 @@
   </si>
   <si>
     <t>Preset EEPROM. Установка констант в EEPROM с заводскими значениями</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Использование</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,13 +559,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -571,17 +590,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -592,6 +624,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950199E7-C044-42AD-B63A-ED92329B683B}" name="Таблица1" displayName="Таблица1" ref="A1:D82" totalsRowShown="0">
+  <autoFilter ref="A1:D82" xr:uid="{4794583E-A196-4A84-B501-4C8698F6C16E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E797534B-59B9-4100-9909-ECCEF4DDD458}" name="Действие"/>
+    <tableColumn id="2" xr3:uid="{28DC00A9-0995-4F15-BA1B-AA8804EF03DB}" name="Код" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{70DAC4C5-31F1-453E-96E6-5C3FD4CE585E}" name="Описание" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DDE13520-C379-40B2-AC56-D811C3F60849}" name="Использование" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,19 +939,19 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="151.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -916,8 +961,11 @@
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -928,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -939,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -949,8 +997,11 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -960,8 +1011,11 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -971,8 +1025,11 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -983,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -993,8 +1050,11 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1015,8 +1075,11 @@
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1026,8 +1089,11 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1059,8 +1125,11 @@
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1070,41 +1139,44 @@
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1114,8 +1186,11 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1125,8 +1200,11 @@
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1136,41 +1214,44 @@
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1180,8 +1261,11 @@
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1191,8 +1275,11 @@
       <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1203,7 +1290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1214,7 +1301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1225,7 +1312,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1236,7 +1323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1388,11 @@
       <c r="C36" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1313,7 +1403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1368,7 +1458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -1379,7 +1469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1390,7 +1480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1491,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1412,7 +1502,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1513,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1524,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1444,8 +1534,11 @@
       <c r="C49" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1456,7 +1549,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1560,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1582,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1511,7 +1604,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1615,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1533,7 +1626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1637,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1555,7 +1648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1566,7 +1659,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1577,7 +1670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1588,7 +1681,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1692,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1610,7 +1703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1714,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -1632,7 +1725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1642,8 +1735,11 @@
       <c r="C67" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1750,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1761,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1772,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -1687,7 +1783,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -1698,7 +1794,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1805,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -1720,40 +1816,40 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +1860,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -1775,7 +1871,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1811,5 +1907,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E682D-04ED-476A-85AB-8EB62E33989C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C18B061-E665-4C9B-B103-A3E574858F9A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="174">
   <si>
     <t>01</t>
   </si>
@@ -228,9 +228,6 @@
     <t>30</t>
   </si>
   <si>
-    <t xml:space="preserve"> Задатчик скважности огибающей пилообразной и прямоугольной формы АМ модуляции в EEPROM, в процентах 0-100%</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -544,6 +541,12 @@
   </si>
   <si>
     <t>Использование</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Задатчик скважности огибающей пилообразной и прямоугольной формы АМ модуляции в EEPROM, в процентах 0-100%</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +965,7 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,6 +978,9 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -986,6 +992,9 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -998,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1026,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,7 +1099,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,6 +1112,9 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1126,7 +1138,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,7 +1199,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1213,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,7 +1227,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1274,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1288,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,6 +1301,9 @@
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1300,6 +1315,9 @@
       <c r="C28" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1311,6 +1329,9 @@
       <c r="C29" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1322,6 +1343,9 @@
       <c r="C30" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1331,7 +1355,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,10 +1363,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
+      <c r="D32" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,10 +1377,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,10 +1391,13 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,10 +1405,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,13 +1416,13 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1430,13 @@
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,10 +1444,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,10 +1455,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>83</v>
+      <c r="D39" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,10 +1469,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
+      <c r="D40" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,43 +1483,49 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>92</v>
+      <c r="D43" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,10 +1533,13 @@
         <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>96</v>
+      <c r="D45" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,10 +1547,10 @@
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,10 +1558,10 @@
         <v>24</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,10 +1569,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>102</v>
+      <c r="D48" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,13 +1583,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,10 +1597,10 @@
         <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,10 +1608,10 @@
         <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,10 +1619,10 @@
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,10 +1630,10 @@
         <v>24</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,10 +1641,10 @@
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1598,10 +1652,10 @@
         <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,10 +1663,10 @@
         <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,10 +1674,13 @@
         <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>120</v>
+      <c r="D57" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,10 +1688,13 @@
         <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,10 +1702,13 @@
         <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>124</v>
+      <c r="D59" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,10 +1716,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>126</v>
+      <c r="D60" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,10 +1730,13 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>128</v>
+      <c r="D61" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1744,10 @@
         <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,10 +1755,13 @@
         <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>132</v>
+      <c r="D63" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,10 +1769,13 @@
         <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,10 +1783,13 @@
         <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>136</v>
+      <c r="D65" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,10 +1797,10 @@
         <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,13 +1808,13 @@
         <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,10 +1822,13 @@
         <v>24</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>142</v>
+      <c r="D68" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,10 +1836,13 @@
         <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,10 +1850,13 @@
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>146</v>
+      <c r="D70" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,10 +1864,13 @@
         <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>148</v>
+      <c r="D71" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,10 +1878,13 @@
         <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>150</v>
+      <c r="D72" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,10 +1892,13 @@
         <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>152</v>
+      <c r="D73" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,10 +1906,10 @@
         <v>24</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,10 +1917,10 @@
         <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,10 +1928,10 @@
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,10 +1939,10 @@
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,10 +1950,10 @@
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,10 +1961,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,10 +1972,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>166</v>
+      <c r="D80" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,10 +1986,10 @@
         <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,10 +1997,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C18B061-E665-4C9B-B103-A3E574858F9A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C346F0-478A-4DCC-A250-C2F43CCFFAA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="EEPROM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="209">
   <si>
     <t>01</t>
   </si>
@@ -547,13 +548,118 @@
   </si>
   <si>
     <t>Задатчик скважности огибающей пилообразной и прямоугольной формы АМ модуляции в EEPROM, в процентах 0-100%</t>
+  </si>
+  <si>
+    <t>setGeneratorWaveForm</t>
+  </si>
+  <si>
+    <t>setGeneratorMinMa</t>
+  </si>
+  <si>
+    <t>setGeneratorMidMa</t>
+  </si>
+  <si>
+    <t>setGeneratorMaxMa</t>
+  </si>
+  <si>
+    <t>setGeneratorPhaseShift</t>
+  </si>
+  <si>
+    <t>setGeneratorTimerOff1</t>
+  </si>
+  <si>
+    <t>setGeneratorTimerOff2</t>
+  </si>
+  <si>
+    <t>setGeneratorTimerOff3</t>
+  </si>
+  <si>
+    <t>setGeneratorTimerOn</t>
+  </si>
+  <si>
+    <t>setGeneratorModulation</t>
+  </si>
+  <si>
+    <t>setGeneratorAmDepth</t>
+  </si>
+  <si>
+    <t>setGeneratorAmFrequency</t>
+  </si>
+  <si>
+    <t>setGeneratorAmForm</t>
+  </si>
+  <si>
+    <t>setGeneratorDutyCycleAM</t>
+  </si>
+  <si>
+    <t>setGeneratorFmDeviation</t>
+  </si>
+  <si>
+    <t>setGeneratorFmFrequency</t>
+  </si>
+  <si>
+    <t>setGeneratorFmForm</t>
+  </si>
+  <si>
+    <t>setGeneratorDutyCycleFM</t>
+  </si>
+  <si>
+    <t>setGeneratorMode</t>
+  </si>
+  <si>
+    <t>setFrequencyAutotuning</t>
+  </si>
+  <si>
+    <t>setGeneratorSoundOn</t>
+  </si>
+  <si>
+    <t>setErrorOff</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>setGeneratorStartSearchResonance</t>
+  </si>
+  <si>
+    <t>setGeneratorFinishSearchResonance</t>
+  </si>
+  <si>
+    <t>setGeneratorFrequency</t>
+  </si>
+  <si>
+    <t>setAmperageStabilization</t>
+  </si>
+  <si>
+    <t>setGeneratorPowerStepMode</t>
+  </si>
+  <si>
+    <t>setGeneratorStepPower</t>
+  </si>
+  <si>
+    <t>setGeneratorStepModeButtonPower</t>
+  </si>
+  <si>
+    <t>setGeneratorStepPowerMin</t>
+  </si>
+  <si>
+    <t>setGeneratorStepPowerMid</t>
+  </si>
+  <si>
+    <t>setGeneratorStepPowerMax</t>
+  </si>
+  <si>
+    <t>setGeneratorStep1Percent</t>
+  </si>
+  <si>
+    <t>setGeneratorStep2Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +676,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +695,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -593,20 +712,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -630,13 +755,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950199E7-C044-42AD-B63A-ED92329B683B}" name="Таблица1" displayName="Таблица1" ref="A1:D82" totalsRowShown="0">
-  <autoFilter ref="A1:D82" xr:uid="{4794583E-A196-4A84-B501-4C8698F6C16E}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950199E7-C044-42AD-B63A-ED92329B683B}" name="Таблица1" displayName="Таблица1" ref="A1:E82" totalsRowShown="0">
+  <autoFilter ref="A1:E82" xr:uid="{4794583E-A196-4A84-B501-4C8698F6C16E}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E797534B-59B9-4100-9909-ECCEF4DDD458}" name="Действие"/>
-    <tableColumn id="2" xr3:uid="{28DC00A9-0995-4F15-BA1B-AA8804EF03DB}" name="Код" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{70DAC4C5-31F1-453E-96E6-5C3FD4CE585E}" name="Описание" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{DDE13520-C379-40B2-AC56-D811C3F60849}" name="Использование" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{28DC00A9-0995-4F15-BA1B-AA8804EF03DB}" name="Код" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{70DAC4C5-31F1-453E-96E6-5C3FD4CE585E}" name="Описание" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DDE13520-C379-40B2-AC56-D811C3F60849}" name="Использование" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DAF43CE4-161D-4EB7-8C6E-A643F93C733A}" name="Функция" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -942,7 +1068,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,11 +1076,12 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="151.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -967,8 +1094,11 @@
       <c r="D1" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1112,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -992,11 +1122,8 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +1137,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +1151,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1165,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1190,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1215,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1101,8 +1228,11 @@
       <c r="D11" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1246,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1155,7 +1285,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1165,8 +1295,14 @@
       <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1176,8 +1312,14 @@
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1187,8 +1329,14 @@
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1350,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1215,8 +1363,11 @@
       <c r="D20" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1381,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1240,8 +1391,14 @@
       <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1251,8 +1408,14 @@
       <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1262,8 +1425,14 @@
       <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1446,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1290,8 +1459,11 @@
       <c r="D26" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1304,8 +1476,11 @@
       <c r="D27" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1318,8 +1493,11 @@
       <c r="D28" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1332,8 +1510,11 @@
       <c r="D29" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1346,19 +1527,28 @@
       <c r="D30" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1371,8 +1561,11 @@
       <c r="D32" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1385,8 +1578,11 @@
       <c r="D33" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1399,8 +1595,11 @@
       <c r="D34" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1410,8 +1609,14 @@
       <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1629,11 @@
       <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1438,8 +1646,11 @@
       <c r="D37" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1449,8 +1660,14 @@
       <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1681,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1695,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1500,7 +1717,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -1514,7 +1731,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -1528,43 +1745,58 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1810,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1835,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1614,51 +1846,75 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1668,8 +1924,14 @@
       <c r="C56" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1683,7 +1945,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1697,7 +1959,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1739,18 +2001,21 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1764,7 +2029,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +2043,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +2057,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -1802,8 +2067,11 @@
       <c r="C66" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1817,7 +2085,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -1830,8 +2098,11 @@
       <c r="D68" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +2116,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -1858,8 +2129,11 @@
       <c r="D70" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -1873,7 +2147,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -1887,9 +2161,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>150</v>
@@ -1901,7 +2175,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -1911,63 +2185,96 @@
       <c r="C74" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2010,4 +2317,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E30ACA-AC97-4612-8828-CB3B7E470FCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C346F0-478A-4DCC-A250-C2F43CCFFAA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D07079A-2692-4D08-B12B-B6A788B5A139}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="219">
   <si>
     <t>01</t>
   </si>
@@ -653,6 +653,36 @@
   </si>
   <si>
     <t>setGeneratorStep2Percent</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>setGeneratorFibonchi</t>
+  </si>
+  <si>
+    <t>Переключатель активности модуляции Фибоначчи в EEPROM, 0-1</t>
+  </si>
+  <si>
+    <t>Ток</t>
+  </si>
+  <si>
+    <t>Ступень 1</t>
+  </si>
+  <si>
+    <t>Ступень 2</t>
+  </si>
+  <si>
+    <t>Ступень 3</t>
+  </si>
+  <si>
+    <t>Сенарий степенчатого режима</t>
+  </si>
+  <si>
+    <t>Доля времени работы ступеней</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
   </si>
 </sst>
 </file>
@@ -728,7 +758,10 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -755,14 +788,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950199E7-C044-42AD-B63A-ED92329B683B}" name="Таблица1" displayName="Таблица1" ref="A1:E82" totalsRowShown="0">
-  <autoFilter ref="A1:E82" xr:uid="{4794583E-A196-4A84-B501-4C8698F6C16E}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950199E7-C044-42AD-B63A-ED92329B683B}" name="Таблица1" displayName="Таблица1" ref="A1:F83" totalsRowShown="0">
+  <autoFilter ref="A1:F83" xr:uid="{4794583E-A196-4A84-B501-4C8698F6C16E}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E797534B-59B9-4100-9909-ECCEF4DDD458}" name="Действие"/>
-    <tableColumn id="2" xr3:uid="{28DC00A9-0995-4F15-BA1B-AA8804EF03DB}" name="Код" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{70DAC4C5-31F1-453E-96E6-5C3FD4CE585E}" name="Описание" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DDE13520-C379-40B2-AC56-D811C3F60849}" name="Использование" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{DAF43CE4-161D-4EB7-8C6E-A643F93C733A}" name="Функция" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{28DC00A9-0995-4F15-BA1B-AA8804EF03DB}" name="Код" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{70DAC4C5-31F1-453E-96E6-5C3FD4CE585E}" name="Описание" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DDE13520-C379-40B2-AC56-D811C3F60849}" name="Использование" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DAF43CE4-161D-4EB7-8C6E-A643F93C733A}" name="Функция" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2EC1DD17-DC19-4505-AA03-0E4F3C805DF3}" name="Столбец1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1065,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00020865-1D5D-41F5-90CF-5D3257670E0D}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1115,7 @@
     <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1097,8 +1131,11 @@
       <c r="E1" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1149,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1174,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1188,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1202,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1227,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1215,7 +1252,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1232,7 +1269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1246,7 +1283,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1285,7 +1322,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1810,7 +1847,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1872,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="E52" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1920,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1897,7 +1937,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1914,7 +1954,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1931,382 +1971,414 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="F76" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="F77" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="F78" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="F79" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="F80" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2321,12 +2393,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E30ACA-AC97-4612-8828-CB3B7E470FCD}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D07079A-2692-4D08-B12B-B6A788B5A139}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6265375F-92CA-439A-963C-9E20C7889416}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
   <si>
     <t>01</t>
   </si>
@@ -683,6 +683,12 @@
   </si>
   <si>
     <t>Столбец1</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Переключатель активности модуляции Фибоначчи, 0-1</t>
   </si>
 </sst>
 </file>
@@ -788,8 +794,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950199E7-C044-42AD-B63A-ED92329B683B}" name="Таблица1" displayName="Таблица1" ref="A1:F83" totalsRowShown="0">
-  <autoFilter ref="A1:F83" xr:uid="{4794583E-A196-4A84-B501-4C8698F6C16E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950199E7-C044-42AD-B63A-ED92329B683B}" name="Таблица1" displayName="Таблица1" ref="A1:F84" totalsRowShown="0">
+  <autoFilter ref="A1:F84" xr:uid="{4794583E-A196-4A84-B501-4C8698F6C16E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E797534B-59B9-4100-9909-ECCEF4DDD458}" name="Действие"/>
     <tableColumn id="2" xr3:uid="{28DC00A9-0995-4F15-BA1B-AA8804EF03DB}" name="Код" dataDxfId="4"/>
@@ -1099,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00020865-1D5D-41F5-90CF-5D3257670E0D}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,13 +1999,13 @@
         <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>170</v>
+        <v>220</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,10 +2013,10 @@
         <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>170</v>
@@ -2021,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>170</v>
@@ -2035,10 +2041,10 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>170</v>
@@ -2049,10 +2055,10 @@
         <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>170</v>
@@ -2063,10 +2069,10 @@
         <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>170</v>
@@ -2077,10 +2083,10 @@
         <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>170</v>
@@ -2091,10 +2097,10 @@
         <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>170</v>
@@ -2105,10 +2111,10 @@
         <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>170</v>
@@ -2119,10 +2125,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>170</v>
@@ -2133,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>170</v>
@@ -2144,64 +2150,64 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2209,10 +2215,10 @@
         <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>170</v>
@@ -2220,16 +2226,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,10 +2243,10 @@
         <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>172</v>
@@ -2251,19 +2257,13 @@
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,16 +2271,16 @@
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>170</v>
@@ -2291,16 +2291,16 @@
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>170</v>
@@ -2311,16 +2311,16 @@
         <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>170</v>
@@ -2331,54 +2331,74 @@
         <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="F81" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>169</v>
       </c>
     </row>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6265375F-92CA-439A-963C-9E20C7889416}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0751DA-3652-4FA2-832F-5E6E2A659B81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00020865-1D5D-41F5-90CF-5D3257670E0D}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0751DA-3652-4FA2-832F-5E6E2A659B81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55F301-733C-48AD-A627-A3B5A2730912}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00020865-1D5D-41F5-90CF-5D3257670E0D}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\LiveSinus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55F301-733C-48AD-A627-A3B5A2730912}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D05CEFE-8A87-4F4F-989A-1F912501FFEF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27795" windowHeight="12195" xr2:uid="{B95A6E3F-1F22-443D-97FC-77573DB2FC04}"/>
   </bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00020865-1D5D-41F5-90CF-5D3257670E0D}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
